--- a/Team-Data/2008-09/3-25-2008-09.xlsx
+++ b/Team-Data/2008-09/3-25-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.583</v>
+        <v>0.592</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,7 +751,7 @@
         <v>36.4</v>
       </c>
       <c r="J2" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
         <v>0.461</v>
@@ -693,37 +760,37 @@
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O2" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P2" t="n">
         <v>25.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R2" t="n">
         <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T2" t="n">
         <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V2" t="n">
         <v>12.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -732,22 +799,22 @@
         <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,10 +841,10 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
@@ -798,13 +865,13 @@
         <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -851,13 +918,13 @@
         <v>72</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.736</v>
+        <v>0.75</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -866,7 +933,7 @@
         <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.486</v>
@@ -881,22 +948,22 @@
         <v>0.394</v>
       </c>
       <c r="O3" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P3" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
         <v>22.7</v>
@@ -905,7 +972,7 @@
         <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
@@ -914,31 +981,31 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -974,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -986,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.437</v>
+        <v>0.443</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1060,16 +1127,16 @@
         <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O4" t="n">
         <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
         <v>10.7</v>
@@ -1081,13 +1148,13 @@
         <v>39.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1099,7 +1166,7 @@
         <v>21.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB4" t="n">
         <v>93.5</v>
@@ -1108,7 +1175,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,28 +1196,28 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1177,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.465</v>
+        <v>0.472</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,43 +1297,43 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1278,22 +1345,22 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1323,10 +1390,10 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC5" t="n">
         <v>17</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -1397,19 +1464,19 @@
         <v>70</v>
       </c>
       <c r="E6" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.829</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
         <v>78.40000000000001</v>
@@ -1418,37 +1485,37 @@
         <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
         <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
         <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1460,19 +1527,19 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1496,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1505,13 +1572,13 @@
         <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
@@ -1520,16 +1587,16 @@
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
         <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.606</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J7" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
         <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
@@ -1648,13 +1715,13 @@
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,16 +1733,16 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
@@ -1684,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1699,34 +1766,34 @@
         <v>15</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>6</v>
       </c>
       <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
         <v>8</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX7" t="n">
         <v>9</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.639</v>
+        <v>0.634</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1794,22 +1861,22 @@
         <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
         <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
         <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
@@ -1833,19 +1900,19 @@
         <v>103.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>12</v>
@@ -1893,13 +1960,13 @@
         <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2036,10 +2103,10 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2057,7 +2124,7 @@
         <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2081,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>0.347</v>
+        <v>0.352</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
         <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O10" t="n">
         <v>23</v>
@@ -2167,10 +2234,10 @@
         <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
@@ -2179,31 +2246,31 @@
         <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X10" t="n">
         <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB10" t="n">
         <v>108.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>24</v>
@@ -2230,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2239,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -2388,16 +2455,16 @@
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -2412,10 +2479,10 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2436,28 +2503,28 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
         <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>0.417</v>
+        <v>0.408</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J12" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K12" t="n">
         <v>0.45</v>
       </c>
       <c r="L12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O12" t="n">
         <v>18.5</v>
@@ -2531,22 +2598,22 @@
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V12" t="n">
         <v>14.8</v>
       </c>
       <c r="W12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
@@ -2555,19 +2622,19 @@
         <v>23.4</v>
       </c>
       <c r="AA12" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2588,16 +2655,16 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
         <v>24</v>
@@ -2615,16 +2682,16 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>54</v>
       </c>
       <c r="G13" t="n">
-        <v>0.25</v>
+        <v>0.239</v>
       </c>
       <c r="H13" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J13" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
         <v>18.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
         <v>17.1</v>
@@ -2707,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R13" t="n">
         <v>11</v>
@@ -2722,31 +2789,31 @@
         <v>21.2</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.4</v>
+        <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2755,13 +2822,13 @@
         <v>28</v>
       </c>
       <c r="AG13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
         <v>27</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>10</v>
@@ -2791,19 +2858,19 @@
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2818,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -2850,52 +2917,52 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
         <v>19.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
         <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
         <v>44.2</v>
@@ -2904,7 +2971,7 @@
         <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
@@ -2919,16 +2986,16 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2958,22 +3025,22 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
         <v>9</v>
       </c>
-      <c r="AP14" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2985,10 +3052,10 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
         <v>14</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3146,10 +3213,10 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
         <v>38</v>
       </c>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.535</v>
+        <v>0.543</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J16" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
       </c>
       <c r="P16" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q16" t="n">
         <v>0.76</v>
@@ -3262,7 +3329,7 @@
         <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
@@ -3277,22 +3344,22 @@
         <v>5.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3307,19 +3374,19 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>11</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN16" t="n">
         <v>22</v>
@@ -3328,10 +3395,10 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3358,13 +3425,13 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -3411,31 +3478,31 @@
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K17" t="n">
         <v>0.444</v>
       </c>
       <c r="L17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
@@ -3450,13 +3517,13 @@
         <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.7</v>
@@ -3468,43 +3535,43 @@
         <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>6</v>
@@ -3519,16 +3586,16 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>13</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>0.278</v>
+        <v>0.282</v>
       </c>
       <c r="H18" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O18" t="n">
         <v>18.8</v>
@@ -3617,16 +3684,16 @@
         <v>24.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
         <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
         <v>20.2</v>
@@ -3644,37 +3711,37 @@
         <v>6.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA18" t="n">
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3686,13 +3753,13 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
         <v>14</v>
@@ -3704,13 +3771,13 @@
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>21</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3725,10 +3792,10 @@
         <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.423</v>
+        <v>0.429</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3781,7 +3848,7 @@
         <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
@@ -3790,31 +3857,31 @@
         <v>20.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R19" t="n">
         <v>10.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U19" t="n">
         <v>19.9</v>
       </c>
       <c r="V19" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W19" t="n">
         <v>7</v>
@@ -3829,37 +3896,37 @@
         <v>22.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>4</v>
@@ -3868,13 +3935,13 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3886,19 +3953,19 @@
         <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
@@ -3910,7 +3977,7 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
         <v>44</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.629</v>
+        <v>0.638</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J20" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
@@ -3969,16 +4036,16 @@
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
         <v>0.369</v>
       </c>
       <c r="O20" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
         <v>0.8100000000000001</v>
@@ -3990,16 +4057,16 @@
         <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U20" t="n">
         <v>19.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4011,16 +4078,16 @@
         <v>20.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4029,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4053,7 +4120,7 @@
         <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
@@ -4074,10 +4141,10 @@
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4086,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
         <v>28</v>
       </c>
       <c r="F21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>0.394</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J21" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
         <v>10.2</v>
       </c>
       <c r="M21" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O21" t="n">
         <v>18.5</v>
@@ -4163,22 +4230,22 @@
         <v>23.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.3</v>
@@ -4187,7 +4254,7 @@
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z21" t="n">
         <v>20.7</v>
@@ -4196,34 +4263,34 @@
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>106</v>
+        <v>105.5</v>
       </c>
       <c r="AC21" t="n">
         <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>13</v>
@@ -4250,28 +4317,28 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>25</v>
@@ -4396,7 +4463,7 @@
         <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
@@ -4429,19 +4496,19 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT22" t="n">
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
         <v>78.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>10.3</v>
@@ -4521,13 +4588,13 @@
         <v>0.386</v>
       </c>
       <c r="O23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P23" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
@@ -4548,7 +4615,7 @@
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
         <v>3.7</v>
@@ -4557,37 +4624,37 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="AC23" t="n">
         <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4623,7 +4690,7 @@
         <v>16</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
         <v>7</v>
@@ -4632,10 +4699,10 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" t="n">
         <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>0.529</v>
+        <v>0.522</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J24" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.459</v>
@@ -4697,22 +4764,22 @@
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O24" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="P24" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S24" t="n">
         <v>29.2</v>
@@ -4739,22 +4806,22 @@
         <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4787,7 +4854,7 @@
         <v>6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4796,19 +4863,19 @@
         <v>22</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW24" t="n">
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.1</v>
@@ -4873,7 +4940,7 @@
         <v>80.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
@@ -4891,28 +4958,28 @@
         <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U25" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V25" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
@@ -4921,16 +4988,16 @@
         <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4948,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4969,10 +5036,10 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR25" t="n">
         <v>22</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
@@ -4987,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
         <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.629</v>
+        <v>0.62</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
         <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5103,37 +5170,37 @@
         <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5142,16 +5209,16 @@
         <v>11</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>18</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AQ26" t="n">
         <v>16</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5184,10 +5251,10 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" t="n">
         <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.662</v>
+        <v>0.657</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
@@ -5416,16 +5483,16 @@
         <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
         <v>7.7</v>
       </c>
       <c r="M28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N28" t="n">
         <v>0.392</v>
@@ -5434,25 +5501,25 @@
         <v>15.1</v>
       </c>
       <c r="P28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U28" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="V28" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
@@ -5470,16 +5537,16 @@
         <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
@@ -5488,10 +5555,10 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5503,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5551,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.366</v>
+        <v>0.357</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,28 +5665,28 @@
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.456</v>
       </c>
       <c r="L29" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="O29" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.826</v>
+        <v>0.825</v>
       </c>
       <c r="R29" t="n">
         <v>9.199999999999999</v>
@@ -5628,13 +5695,13 @@
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U29" t="n">
         <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W29" t="n">
         <v>6.2</v>
@@ -5646,19 +5713,19 @@
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,13 +5737,13 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
         <v>15</v>
@@ -5688,13 +5755,13 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,16 +5773,16 @@
         <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX29" t="n">
         <v>18</v>
@@ -5724,10 +5791,10 @@
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
         <v>44</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.62</v>
+        <v>0.629</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,34 +5847,34 @@
         <v>38.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M30" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
         <v>27.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T30" t="n">
         <v>41.2</v>
@@ -5825,40 +5892,40 @@
         <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
         <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.3</v>
+        <v>103.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>19</v>
@@ -5900,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5915,7 +5982,7 @@
         <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>0.233</v>
+        <v>0.222</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K31" t="n">
         <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M31" t="n">
         <v>14.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O31" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P31" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q31" t="n">
         <v>0.766</v>
@@ -5989,16 +6056,16 @@
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T31" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6013,19 +6080,19 @@
         <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
         <v>95.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.8</v>
+        <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>30</v>
@@ -6037,10 +6104,10 @@
         <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
@@ -6055,7 +6122,7 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>22</v>
@@ -6070,31 +6137,31 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-25-2008-09</t>
+          <t>2009-03-25</t>
         </is>
       </c>
     </row>
